--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H2">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I2">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J2">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N2">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O2">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P2">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q2">
-        <v>0.7703917054399999</v>
+        <v>0.8136095136777777</v>
       </c>
       <c r="R2">
-        <v>6.93352534896</v>
+        <v>7.3224856231</v>
       </c>
       <c r="S2">
-        <v>0.01855601122434783</v>
+        <v>0.02436185381507382</v>
       </c>
       <c r="T2">
-        <v>0.02318419535991109</v>
+        <v>0.02809925319860441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H3">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I3">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J3">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N3">
         <v>11.898589</v>
       </c>
       <c r="O3">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P3">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q3">
-        <v>0.6832011155946668</v>
+        <v>0.9747654625161111</v>
       </c>
       <c r="R3">
-        <v>6.148810040352001</v>
+        <v>8.772889162644999</v>
       </c>
       <c r="S3">
-        <v>0.01645589831762402</v>
+        <v>0.02918733532804426</v>
       </c>
       <c r="T3">
-        <v>0.02056027865072798</v>
+        <v>0.03366502121722063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H4">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I4">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J4">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N4">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O4">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P4">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q4">
-        <v>0.7088593932373333</v>
+        <v>1.232050418026667</v>
       </c>
       <c r="R4">
-        <v>6.379734539136</v>
+        <v>11.08845376224</v>
       </c>
       <c r="S4">
-        <v>0.01707391546990219</v>
+        <v>0.03689120108869991</v>
       </c>
       <c r="T4">
-        <v>0.02133243976989095</v>
+        <v>0.04255075201012031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H5">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I5">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J5">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N5">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O5">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P5">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q5">
-        <v>1.420467073536</v>
+        <v>0.8116967397008333</v>
       </c>
       <c r="R5">
-        <v>8.522802441215999</v>
+        <v>4.870180438205</v>
       </c>
       <c r="S5">
-        <v>0.03421402745412005</v>
+        <v>0.02430457975519102</v>
       </c>
       <c r="T5">
-        <v>0.02849839105884529</v>
+        <v>0.0186887950758553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.172256</v>
+        <v>0.2457683333333333</v>
       </c>
       <c r="H6">
-        <v>0.516768</v>
+        <v>0.737305</v>
       </c>
       <c r="I6">
-        <v>0.1007998459820299</v>
+        <v>0.1447271191911903</v>
       </c>
       <c r="J6">
-        <v>0.1116918428350044</v>
+        <v>0.1575855905380038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N6">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O6">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P6">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q6">
-        <v>0.6019976275413332</v>
+        <v>1.001309753280556</v>
       </c>
       <c r="R6">
-        <v>5.417978647872</v>
+        <v>9.011787779525001</v>
       </c>
       <c r="S6">
-        <v>0.01449999351603578</v>
+        <v>0.02998214920418131</v>
       </c>
       <c r="T6">
-        <v>0.0181165379956291</v>
+        <v>0.03458176903620312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.110073</v>
       </c>
       <c r="I7">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J7">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N7">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O7">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P7">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q7">
-        <v>4.636460544215</v>
+        <v>3.431937910406667</v>
       </c>
       <c r="R7">
-        <v>41.728144897935</v>
+        <v>30.88744119366</v>
       </c>
       <c r="S7">
-        <v>0.1116759348422138</v>
+        <v>0.1027622812543087</v>
       </c>
       <c r="T7">
-        <v>0.1395298083774242</v>
+        <v>0.1185272427192861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.110073</v>
       </c>
       <c r="I8">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J8">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N8">
         <v>11.898589</v>
       </c>
       <c r="O8">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P8">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q8">
-        <v>4.111720042999667</v>
+        <v>4.111720042999666</v>
       </c>
       <c r="R8">
-        <v>37.005480386997</v>
+        <v>37.00548038699699</v>
       </c>
       <c r="S8">
-        <v>0.09903679223246774</v>
+        <v>0.1231169509845947</v>
       </c>
       <c r="T8">
-        <v>0.1237382490868349</v>
+        <v>0.1420045619277029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.110073</v>
       </c>
       <c r="I9">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J9">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N9">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O9">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P9">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q9">
-        <v>4.266139659777333</v>
+        <v>5.196990037696</v>
       </c>
       <c r="R9">
-        <v>38.395256937996</v>
+        <v>46.772910339264</v>
       </c>
       <c r="S9">
-        <v>0.1027562146015719</v>
+        <v>0.1556131159337536</v>
       </c>
       <c r="T9">
-        <v>0.1283853585215494</v>
+        <v>0.1794860267546957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.110073</v>
       </c>
       <c r="I10">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J10">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N10">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O10">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P10">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q10">
-        <v>8.548819378895999</v>
+        <v>3.4238695171355</v>
       </c>
       <c r="R10">
-        <v>51.29291627337599</v>
+        <v>20.543217102813</v>
       </c>
       <c r="S10">
-        <v>0.2059108207286781</v>
+        <v>0.1025206899084723</v>
       </c>
       <c r="T10">
-        <v>0.1715123161177862</v>
+        <v>0.07883239225008716</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.110073</v>
       </c>
       <c r="I11">
-        <v>0.6066453019398833</v>
+        <v>0.6104826439049008</v>
       </c>
       <c r="J11">
-        <v>0.6721967782861762</v>
+        <v>0.6647217777192627</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N11">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O11">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P11">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q11">
-        <v>3.623011810871333</v>
+        <v>4.223688200018334</v>
       </c>
       <c r="R11">
-        <v>32.60710629784199</v>
+        <v>38.01319380016501</v>
       </c>
       <c r="S11">
-        <v>0.08726553953495174</v>
+        <v>0.1264696058237714</v>
       </c>
       <c r="T11">
-        <v>0.1090310461825813</v>
+        <v>0.1458715540674908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H12">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I12">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J12">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.472365</v>
+        <v>3.310473333333333</v>
       </c>
       <c r="N12">
-        <v>13.417095</v>
+        <v>9.931419999999999</v>
       </c>
       <c r="O12">
-        <v>0.1840876942178652</v>
+        <v>0.1683295705132556</v>
       </c>
       <c r="P12">
-        <v>0.2075728609309428</v>
+        <v>0.1783110568845311</v>
       </c>
       <c r="Q12">
-        <v>2.2359342837425</v>
+        <v>1.37613231517</v>
       </c>
       <c r="R12">
-        <v>13.415605702455</v>
+        <v>8.256793891019999</v>
       </c>
       <c r="S12">
-        <v>0.05385574815130366</v>
+        <v>0.04120543544387307</v>
       </c>
       <c r="T12">
-        <v>0.04485885719360746</v>
+        <v>0.03168456096664058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H13">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I13">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J13">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.966196333333334</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N13">
         <v>11.898589</v>
       </c>
       <c r="O13">
-        <v>0.163253208943967</v>
+        <v>0.2016715007605908</v>
       </c>
       <c r="P13">
-        <v>0.1840803959256043</v>
+        <v>0.2136300730433972</v>
       </c>
       <c r="Q13">
-        <v>1.982878042770167</v>
+        <v>1.6487101369015</v>
       </c>
       <c r="R13">
-        <v>11.897268256621</v>
+        <v>9.892260821409</v>
       </c>
       <c r="S13">
-        <v>0.04776051839387529</v>
+        <v>0.04936721444795187</v>
       </c>
       <c r="T13">
-        <v>0.03978186818804134</v>
+        <v>0.03796048989847364</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H14">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I14">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J14">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.115150666666667</v>
+        <v>5.013056</v>
       </c>
       <c r="N14">
-        <v>12.345452</v>
+        <v>15.039168</v>
       </c>
       <c r="O14">
-        <v>0.1693843408545093</v>
+        <v>0.2549017854764673</v>
       </c>
       <c r="P14">
-        <v>0.1909937129554221</v>
+        <v>0.2700167690767302</v>
       </c>
       <c r="Q14">
-        <v>2.057346942471333</v>
+        <v>2.083879755168</v>
       </c>
       <c r="R14">
-        <v>12.344081654828</v>
+        <v>12.503278531008</v>
       </c>
       <c r="S14">
-        <v>0.04955421078303524</v>
+        <v>0.06239746845401378</v>
       </c>
       <c r="T14">
-        <v>0.0412759146639817</v>
+        <v>0.04797999031191412</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H15">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I15">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J15">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.246255999999999</v>
+        <v>3.3026905</v>
       </c>
       <c r="N15">
-        <v>16.492512</v>
+        <v>6.605381</v>
       </c>
       <c r="O15">
-        <v>0.3394253941639908</v>
+        <v>0.1679338322424817</v>
       </c>
       <c r="P15">
-        <v>0.2551519460641744</v>
+        <v>0.1185945682727144</v>
       </c>
       <c r="Q15">
-        <v>4.122670332792</v>
+        <v>1.37289706529025</v>
       </c>
       <c r="R15">
-        <v>16.490681331168</v>
+        <v>5.491588261161</v>
       </c>
       <c r="S15">
-        <v>0.09930054598119266</v>
+        <v>0.04110856257881839</v>
       </c>
       <c r="T15">
-        <v>0.05514123888754288</v>
+        <v>0.0210733809467719</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4999445</v>
+        <v>0.4156905</v>
       </c>
       <c r="H16">
-        <v>0.999889</v>
+        <v>0.831381</v>
       </c>
       <c r="I16">
-        <v>0.2925548520780869</v>
+        <v>0.2447902369039089</v>
       </c>
       <c r="J16">
-        <v>0.2161113788788194</v>
+        <v>0.1776926317427335</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.494784666666666</v>
+        <v>4.074201666666667</v>
       </c>
       <c r="N16">
-        <v>10.484354</v>
+        <v>12.222605</v>
       </c>
       <c r="O16">
-        <v>0.1438493618196675</v>
+        <v>0.2071633110072045</v>
       </c>
       <c r="P16">
-        <v>0.1622010841238564</v>
+        <v>0.2194475327226272</v>
       </c>
       <c r="Q16">
-        <v>1.747198372784333</v>
+        <v>1.6936069279175</v>
       </c>
       <c r="R16">
-        <v>10.483190236706</v>
+        <v>10.161641567505</v>
       </c>
       <c r="S16">
-        <v>0.04208382876868004</v>
+        <v>0.05071155597925173</v>
       </c>
       <c r="T16">
-        <v>0.03505349994564599</v>
+        <v>0.03899420961893325</v>
       </c>
     </row>
   </sheetData>
